--- a/2017股票交易盘点/201612-201712.xlsx
+++ b/2017股票交易盘点/201612-201712.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="基础明细数据" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId34"/>
+    <pivotCache cacheId="3" r:id="rId34"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -4001,15 +4001,9 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4027,7 +4021,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="43080.399852893519" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="234">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G235" sheet="买卖分析"/>
+    <worksheetSource ref="A1:G235" sheet="买卖分析" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="交收日期" numFmtId="0">
@@ -6203,7 +6197,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -6353,7 +6347,7 @@
     <dataField name="求和项:成交金额" fld="6" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -20673,7 +20667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -24214,7 +24208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -32058,7 +32052,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -32790,7 +32784,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD22"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33642,7 +33636,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J2" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
